--- a/db/2025 archivos/FIXTURE COMPLETO.xlsx
+++ b/db/2025 archivos/FIXTURE COMPLETO.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\smaidana\proyectos\entorno-php\src\sgt_mvc\db\2025 archivos\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09D36516-3DC2-4C8D-99BD-4C1A720516E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="28680" yWindow="-1785" windowWidth="20640" windowHeight="11040" tabRatio="500" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VILLA DORA FEM" sheetId="1" r:id="rId1"/>
@@ -12,7 +18,9 @@
     <sheet name="REGATAS" sheetId="3" r:id="rId3"/>
     <sheet name="GYE " sheetId="4" r:id="rId4"/>
     <sheet name="SABADO VD" sheetId="5" r:id="rId5"/>
-    <sheet name="REGATAS SAB" sheetId="6" r:id="rId6"/>
+    <sheet name="SABADO GYE " sheetId="8" r:id="rId6"/>
+    <sheet name="REGATAS SAB" sheetId="6" state="hidden" r:id="rId7"/>
+    <sheet name="planileros" sheetId="7" state="hidden" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -24,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="224">
   <si>
     <t>DIA JUEVES 01</t>
   </si>
@@ -494,27 +502,15 @@
     <t>FEM45</t>
   </si>
   <si>
-    <t>RECLAS 42</t>
-  </si>
-  <si>
     <t xml:space="preserve">4TO </t>
   </si>
   <si>
     <t>5TO</t>
   </si>
   <si>
-    <t>1RO ZONA 1</t>
-  </si>
-  <si>
     <t>SEMI MASC 50</t>
   </si>
   <si>
-    <t>1RO ZONA 2</t>
-  </si>
-  <si>
-    <t>2DO ZONA 1</t>
-  </si>
-  <si>
     <t>MASC50</t>
   </si>
   <si>
@@ -636,16 +632,100 @@
   </si>
   <si>
     <t>FINAL PLATA 40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hora </t>
+  </si>
+  <si>
+    <t>cancha 1</t>
+  </si>
+  <si>
+    <t>cancha 2</t>
+  </si>
+  <si>
+    <t>cancha 3</t>
+  </si>
+  <si>
+    <t>jueves</t>
+  </si>
+  <si>
+    <t>hora</t>
+  </si>
+  <si>
+    <t>viernes</t>
+  </si>
+  <si>
+    <t>sabado</t>
+  </si>
+  <si>
+    <t>ojeda joaquin</t>
+  </si>
+  <si>
+    <t>ian</t>
+  </si>
+  <si>
+    <t>vito lechi todo el dia</t>
+  </si>
+  <si>
+    <t>luca celegin todo el dia</t>
+  </si>
+  <si>
+    <t>nicole spesot  todo el dia</t>
+  </si>
+  <si>
+    <t>guy maia  todo el dia</t>
+  </si>
+  <si>
+    <t>pablo sistars todo el dia</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">jere noval </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>hasta las 13:30</t>
+    </r>
+  </si>
+  <si>
+    <t>2DO ZONA B</t>
+  </si>
+  <si>
+    <t>RECLASIF 42</t>
+  </si>
+  <si>
+    <t>Gan 4to Final 1</t>
+  </si>
+  <si>
+    <t>Gan 4to Final 4</t>
+  </si>
+  <si>
+    <t>Gan 4to Final 2</t>
+  </si>
+  <si>
+    <t>Gan 4to Final 3</t>
+  </si>
+  <si>
+    <t>Semi m+50 plata</t>
+  </si>
+  <si>
+    <t>final m+50</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="h:mm"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -727,8 +807,15 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -744,6 +831,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -875,30 +980,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -918,23 +1004,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -947,12 +1026,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -968,28 +1042,7 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1001,22 +1054,73 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1028,6 +1132,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1211,1001 +1318,967 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:M13"/>
+    <sheetView topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="14.7109375" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="14.7109375" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" style="7" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" style="7" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="7" customWidth="1"/>
-    <col min="11" max="11" width="6.5703125" style="7" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="7" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="6.5703125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="5" t="s">
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="H2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="9" t="s">
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="10"/>
-      <c r="H3" s="11" t="s">
+      <c r="G3" s="3"/>
+      <c r="H3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="L3" s="11" t="s">
+      <c r="K3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="M3" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
+      <c r="A4" s="5">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="13" t="s">
+      <c r="D4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="12">
+      <c r="G4" s="8"/>
+      <c r="H4" s="5">
         <v>0.58333333333333304</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="13" t="s">
+      <c r="J4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="L4" s="13" t="s">
+      <c r="K4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="L4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="M4" s="14" t="s">
+      <c r="M4" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
+      <c r="A5" s="5">
         <v>0.625</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="13" t="s">
+      <c r="D5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="12">
+      <c r="G5" s="8"/>
+      <c r="H5" s="5">
         <v>0.625</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="I5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="13" t="s">
+      <c r="J5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="L5" s="13" t="s">
+      <c r="K5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="L5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="M5" s="14" t="s">
+      <c r="M5" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
+      <c r="A6" s="5">
         <v>0.66666666666666696</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="13" t="s">
+      <c r="D6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="12">
+      <c r="G6" s="8"/>
+      <c r="H6" s="5">
         <v>0.66666666666666696</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="I6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="13" t="s">
+      <c r="J6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="K6" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="L6" s="13" t="s">
+      <c r="K6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="M6" s="14" t="s">
+      <c r="M6" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
+      <c r="A7" s="5">
         <v>0.70833333333333304</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="13" t="s">
+      <c r="D7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="12">
+      <c r="G7" s="8"/>
+      <c r="H7" s="5">
         <v>0.70833333333333304</v>
       </c>
-      <c r="I7" s="13" t="s">
+      <c r="I7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="13" t="s">
+      <c r="J7" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="K7" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="L7" s="13" t="s">
+      <c r="K7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="L7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="M7" s="14" t="s">
+      <c r="M7" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
+      <c r="A8" s="5">
         <v>0.75</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="13" t="s">
+      <c r="D8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="15"/>
-      <c r="H8" s="12">
+      <c r="G8" s="8"/>
+      <c r="H8" s="5">
         <v>0.75</v>
       </c>
-      <c r="I8" s="13" t="s">
+      <c r="I8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="J8" s="13" t="s">
+      <c r="J8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="L8" s="13" t="s">
+      <c r="K8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="L8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="M8" s="14" t="s">
+      <c r="M8" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="12">
+      <c r="A9" s="5">
         <v>1.7916666666666701</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="13" t="s">
+      <c r="D9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="15"/>
-      <c r="H9" s="12">
+      <c r="G9" s="8"/>
+      <c r="H9" s="5">
         <v>0.79166666666666696</v>
       </c>
-      <c r="I9" s="13" t="s">
+      <c r="I9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="J9" s="13" t="s">
+      <c r="J9" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K9" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="L9" s="13" t="s">
+      <c r="K9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="L9" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="M9" s="14" t="s">
+      <c r="M9" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="12">
+      <c r="A10" s="5">
         <v>0.83333333333333304</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="13" t="s">
+      <c r="D10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="12">
+      <c r="H10" s="5">
         <v>0.83333333333333304</v>
       </c>
-      <c r="I10" s="13" t="s">
+      <c r="I10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="13" t="s">
+      <c r="J10" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="K10" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="L10" s="13" t="s">
+      <c r="K10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="L10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="M10" s="14" t="s">
+      <c r="M10" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="12">
+      <c r="A11" s="5">
         <v>0.875</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="17" t="s">
+      <c r="D11" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="8"/>
-      <c r="H11" s="12">
+      <c r="H11" s="5">
         <v>0.875</v>
       </c>
-      <c r="I11" s="13" t="s">
+      <c r="I11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="13" t="s">
+      <c r="J11" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K11" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="L11" s="13" t="s">
+      <c r="K11" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="L11" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="M11" s="14" t="s">
+      <c r="M11" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="12">
+      <c r="A12" s="5">
         <v>0.91666666666666696</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="13" t="s">
+      <c r="D12" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="6">
         <v>2</v>
       </c>
-      <c r="G12" s="10"/>
-      <c r="H12" s="12">
+      <c r="G12" s="3"/>
+      <c r="H12" s="5">
         <v>0.91666666666666696</v>
       </c>
-      <c r="I12" s="13" t="s">
+      <c r="I12" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="J12" s="13" t="s">
+      <c r="J12" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="K12" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="L12" s="13" t="s">
+      <c r="K12" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="L12" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="M12" s="13">
+      <c r="M12" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="12">
+      <c r="A13" s="5">
         <v>0.95833333333333304</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13" t="s">
+      <c r="D13" s="6"/>
+      <c r="E13" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F13" s="6">
         <v>2</v>
       </c>
-      <c r="G13" s="10"/>
-      <c r="H13" s="12">
+      <c r="G13" s="3"/>
+      <c r="H13" s="5">
         <v>0.95833333333333304</v>
       </c>
-      <c r="I13" s="13" t="s">
+      <c r="I13" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="J13" s="13" t="s">
+      <c r="J13" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13" t="s">
+      <c r="K13" s="6"/>
+      <c r="L13" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="M13" s="13"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
+      <c r="M13" s="6"/>
     </row>
     <row r="16" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35"/>
     </row>
     <row r="17" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="5" t="s">
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="35"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="9" t="s">
+      <c r="D18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G18" s="8"/>
-      <c r="H18" s="9" t="s">
+      <c r="H18" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I18" s="9" t="s">
+      <c r="I18" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J18" s="9" t="s">
+      <c r="J18" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K18" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="L18" s="9" t="s">
+      <c r="K18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L18" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="M18" s="9" t="s">
+      <c r="M18" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="19">
+      <c r="A19" s="11">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="13" t="s">
+      <c r="D19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="F19" s="14" t="s">
+      <c r="F19" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="10"/>
-      <c r="H19" s="20">
+      <c r="G19" s="3"/>
+      <c r="H19" s="12">
         <v>0.41666666666666702</v>
       </c>
-      <c r="I19" s="13" t="s">
+      <c r="I19" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J19" s="13" t="s">
+      <c r="J19" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K19" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="L19" s="13" t="s">
+      <c r="K19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L19" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="M19" s="14" t="s">
+      <c r="M19" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="21"/>
-      <c r="B20" s="13" t="s">
+      <c r="A20" s="13"/>
+      <c r="B20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" s="13" t="s">
+      <c r="D20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F20" s="14" t="s">
+      <c r="F20" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G20" s="10"/>
-      <c r="H20" s="20">
+      <c r="G20" s="3"/>
+      <c r="H20" s="12">
         <v>0.45833333333333298</v>
       </c>
-      <c r="I20" s="13" t="s">
+      <c r="I20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="J20" s="13" t="s">
+      <c r="J20" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="K20" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="L20" s="13" t="s">
+      <c r="K20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L20" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="M20" s="14" t="s">
+      <c r="M20" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="21"/>
-      <c r="B21" s="13" t="s">
+      <c r="A21" s="13"/>
+      <c r="B21" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" s="13" t="s">
+      <c r="D21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="14" t="s">
+      <c r="F21" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="10"/>
-      <c r="H21" s="20">
+      <c r="G21" s="3"/>
+      <c r="H21" s="12">
         <v>0.5</v>
       </c>
-      <c r="I21" s="13" t="s">
+      <c r="I21" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="J21" s="13" t="s">
+      <c r="J21" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="K21" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="L21" s="13" t="s">
+      <c r="K21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L21" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="M21" s="14" t="s">
+      <c r="M21" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="21"/>
-      <c r="B22" s="13" t="s">
+      <c r="A22" s="13"/>
+      <c r="B22" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="13" t="s">
+      <c r="D22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F22" s="14" t="s">
+      <c r="F22" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G22" s="10"/>
-      <c r="H22" s="20">
+      <c r="G22" s="3"/>
+      <c r="H22" s="12">
         <v>0.54166666666666696</v>
       </c>
-      <c r="I22" s="13" t="s">
+      <c r="I22" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="J22" s="13" t="s">
+      <c r="J22" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="K22" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="L22" s="13" t="s">
+      <c r="K22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L22" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="M22" s="14" t="s">
+      <c r="M22" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="21"/>
-      <c r="B23" s="13" t="s">
+      <c r="A23" s="13"/>
+      <c r="B23" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" s="13" t="s">
+      <c r="D23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F23" s="14" t="s">
+      <c r="F23" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G23" s="10"/>
-      <c r="H23" s="20">
+      <c r="G23" s="3"/>
+      <c r="H23" s="12">
         <v>0.58333333333333304</v>
       </c>
-      <c r="I23" s="13" t="s">
+      <c r="I23" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J23" s="13" t="s">
+      <c r="J23" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K23" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="L23" s="13" t="s">
+      <c r="K23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L23" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="M23" s="14" t="s">
+      <c r="M23" s="7" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="21"/>
-      <c r="B24" s="13" t="s">
+      <c r="A24" s="13"/>
+      <c r="B24" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E24" s="13" t="s">
+      <c r="D24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="14" t="s">
+      <c r="F24" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G24" s="10"/>
-      <c r="H24" s="20">
+      <c r="G24" s="3"/>
+      <c r="H24" s="12">
         <v>0.625</v>
       </c>
-      <c r="I24" s="13" t="s">
+      <c r="I24" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J24" s="13" t="s">
+      <c r="J24" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="K24" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="L24" s="13" t="s">
+      <c r="K24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L24" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="M24" s="14" t="s">
+      <c r="M24" s="7" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="21"/>
-      <c r="B25" s="13" t="s">
+      <c r="A25" s="13"/>
+      <c r="B25" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25" s="13" t="s">
+      <c r="D25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F25" s="14" t="s">
+      <c r="F25" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G25" s="10"/>
-      <c r="H25" s="20">
+      <c r="G25" s="3"/>
+      <c r="H25" s="12">
         <v>0.66666666666666696</v>
       </c>
-      <c r="I25" s="13" t="s">
+      <c r="I25" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J25" s="13" t="s">
+      <c r="J25" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K25" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="L25" s="13" t="s">
+      <c r="K25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L25" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="M25" s="14" t="s">
+      <c r="M25" s="7" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="21"/>
-      <c r="B26" s="13" t="s">
+      <c r="A26" s="13"/>
+      <c r="B26" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D26" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E26" s="13" t="s">
+      <c r="D26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F26" s="14" t="s">
+      <c r="F26" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G26" s="10"/>
-      <c r="H26" s="20">
+      <c r="G26" s="3"/>
+      <c r="H26" s="12">
         <v>0.70833333333333304</v>
       </c>
-      <c r="I26" s="13" t="s">
+      <c r="I26" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J26" s="13" t="s">
+      <c r="J26" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K26" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="L26" s="13" t="s">
+      <c r="K26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L26" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="M26" s="14" t="s">
+      <c r="M26" s="7" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="21"/>
-      <c r="B27" s="13" t="s">
+      <c r="A27" s="13"/>
+      <c r="B27" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D27" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E27" s="13" t="s">
+      <c r="D27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F27" s="14" t="s">
+      <c r="F27" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G27" s="10"/>
-      <c r="H27" s="20">
+      <c r="G27" s="3"/>
+      <c r="H27" s="12">
         <v>0.75</v>
       </c>
-      <c r="I27" s="13" t="s">
+      <c r="I27" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J27" s="13" t="s">
+      <c r="J27" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K27" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="L27" s="13" t="s">
+      <c r="K27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L27" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="M27" s="14" t="s">
+      <c r="M27" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="21"/>
-      <c r="B28" s="13" t="s">
+      <c r="A28" s="13"/>
+      <c r="B28" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13" t="s">
+      <c r="D28" s="6"/>
+      <c r="E28" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F28" s="13"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="20">
+      <c r="F28" s="6"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="12">
         <v>0.79166666666666696</v>
       </c>
-      <c r="I28" s="13" t="s">
+      <c r="I28" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J28" s="13" t="s">
+      <c r="J28" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="K28" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="L28" s="13" t="s">
+      <c r="K28" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="L28" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="M28" s="14" t="s">
+      <c r="M28" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="21"/>
-      <c r="B29" s="13" t="s">
+      <c r="A29" s="13"/>
+      <c r="B29" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13" t="s">
+      <c r="D29" s="6"/>
+      <c r="E29" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F29" s="13"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="22"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="14"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="7"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="24" t="s">
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J30" s="24"/>
-      <c r="K30" s="25"/>
-      <c r="L30" s="24"/>
-      <c r="M30" s="26"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="16"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="24"/>
-      <c r="K31" s="25"/>
-      <c r="L31" s="24"/>
-      <c r="M31" s="26"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="16"/>
     </row>
     <row r="36" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G36" s="27"/>
+      <c r="G36" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2222,11 +2295,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F29" sqref="A1:F29"/>
+    <sheetView topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2237,494 +2310,494 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="22" t="s">
+      <c r="D3" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="14" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
+      <c r="A4" s="5">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="13" t="s">
+      <c r="D4" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
+      <c r="A5" s="5">
         <v>0.625</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="13" t="s">
+      <c r="D5" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
+      <c r="A6" s="5">
         <v>0.66666666666666696</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="13" t="s">
+      <c r="D6" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
+      <c r="A7" s="5">
         <v>0.70833333333333304</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D7" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="13" t="s">
+      <c r="D7" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
+      <c r="A8" s="5">
         <v>0.75</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D8" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="13" t="s">
+      <c r="D8" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="12">
+      <c r="A9" s="5">
         <v>0.79166666666666696</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D9" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="13" t="s">
+      <c r="D9" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="12">
+      <c r="A10" s="5">
         <v>0.83333333333333304</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="17" t="s">
+      <c r="D10" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="12">
+      <c r="A11" s="5">
         <v>0.875</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D11" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="13" t="s">
+      <c r="D11" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="12">
+      <c r="A12" s="5">
         <v>0.91666666666666696</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="13" t="s">
+      <c r="D12" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="22" t="s">
+      <c r="D17" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F17" s="22" t="s">
+      <c r="F17" s="14" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="12">
+      <c r="A18" s="5">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="22"/>
-      <c r="E18" s="13" t="s">
+      <c r="D18" s="14"/>
+      <c r="E18" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="F18" s="14">
+      <c r="F18" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="12">
+      <c r="A19" s="5">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D19" s="22"/>
-      <c r="E19" s="13" t="s">
+      <c r="D19" s="14"/>
+      <c r="E19" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="F19" s="14">
+      <c r="F19" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="12">
+      <c r="A20" s="5">
         <v>0.5</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="D20" s="22"/>
-      <c r="E20" s="13" t="s">
+      <c r="D20" s="14"/>
+      <c r="E20" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F20" s="14">
+      <c r="F20" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="12">
+      <c r="A21" s="5">
         <v>0.75</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="28"/>
-      <c r="E21" s="13" t="s">
+      <c r="D21" s="18"/>
+      <c r="E21" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F21" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="12">
+      <c r="A22" s="5">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D22" s="22"/>
-      <c r="E22" s="13" t="s">
+      <c r="D22" s="14"/>
+      <c r="E22" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="F22" s="14">
+      <c r="F22" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="12">
+      <c r="A23" s="5">
         <v>0.625</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D23" s="22"/>
-      <c r="E23" s="13" t="s">
+      <c r="D23" s="14"/>
+      <c r="E23" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="F23" s="14">
+      <c r="F23" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="12">
+      <c r="A24" s="5">
         <v>0.66666666666666696</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D24" s="22"/>
-      <c r="E24" s="17" t="s">
+      <c r="D24" s="14"/>
+      <c r="E24" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="F24" s="14">
+      <c r="F24" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="12">
+      <c r="A25" s="5">
         <v>0.70833333333333304</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="D25" s="22"/>
-      <c r="E25" s="13" t="s">
+      <c r="D25" s="14"/>
+      <c r="E25" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F25" s="16">
+      <c r="F25" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="12">
+      <c r="A26" s="5">
         <v>0.75</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D26" s="22"/>
-      <c r="E26" s="13" t="s">
+      <c r="D26" s="14"/>
+      <c r="E26" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="F26" s="14">
+      <c r="F26" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="12">
+      <c r="A27" s="5">
         <v>0.79166666666666696</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13" t="s">
+      <c r="D27" s="6"/>
+      <c r="E27" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="F27" s="13">
+      <c r="F27" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="12">
+      <c r="A28" s="5">
         <v>0.83333333333333304</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13" t="s">
+      <c r="D28" s="6"/>
+      <c r="E28" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="F28" s="13"/>
+      <c r="F28" s="6"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="12">
+      <c r="A29" s="5">
         <v>0.875</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13" t="s">
+      <c r="D29" s="6"/>
+      <c r="E29" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="F29" s="13"/>
+      <c r="F29" s="6"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="24"/>
+      <c r="A30" s="3"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="24"/>
+      <c r="A31" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2738,11 +2811,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M26" activeCellId="1" sqref="A1:F29 M26"/>
+    <sheetView topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2753,714 +2826,693 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="6" t="s">
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="H2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="9" t="s">
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="10"/>
-      <c r="H3" s="11" t="s">
+      <c r="G3" s="3"/>
+      <c r="H3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="L3" s="11" t="s">
+      <c r="K3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="M3" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
+      <c r="A4" s="5">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13" t="s">
+      <c r="D4" s="6"/>
+      <c r="E4" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="12">
+      <c r="G4" s="8"/>
+      <c r="H4" s="5">
         <v>0.58333333333333304</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="J4" s="13" t="s">
+      <c r="J4" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13" t="s">
+      <c r="K4" s="6"/>
+      <c r="L4" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="M4" s="14" t="s">
+      <c r="M4" s="7" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
+      <c r="A5" s="5">
         <v>0.625</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13" t="s">
+      <c r="D5" s="6"/>
+      <c r="E5" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="12">
+      <c r="G5" s="8"/>
+      <c r="H5" s="5">
         <v>0.625</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="I5" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="J5" s="13" t="s">
+      <c r="J5" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13" t="s">
+      <c r="K5" s="6"/>
+      <c r="L5" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="M5" s="14" t="s">
+      <c r="M5" s="7" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
+      <c r="A6" s="5">
         <v>0.66666666666666696</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13" t="s">
+      <c r="D6" s="6"/>
+      <c r="E6" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="12">
+      <c r="G6" s="8"/>
+      <c r="H6" s="5">
         <v>0.66666666666666696</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="I6" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="J6" s="13" t="s">
+      <c r="J6" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13" t="s">
+      <c r="K6" s="6"/>
+      <c r="L6" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="M6" s="14" t="s">
+      <c r="M6" s="7" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
+      <c r="A7" s="5">
         <v>0.70833333333333304</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13" t="s">
+      <c r="D7" s="6"/>
+      <c r="E7" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="12">
+      <c r="G7" s="8"/>
+      <c r="H7" s="5">
         <v>0.70833333333333304</v>
       </c>
-      <c r="I7" s="13" t="s">
+      <c r="I7" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="J7" s="13" t="s">
+      <c r="J7" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13" t="s">
+      <c r="K7" s="6"/>
+      <c r="L7" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="M7" s="14" t="s">
+      <c r="M7" s="7" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
+      <c r="A8" s="5">
         <v>0.75</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13" t="s">
+      <c r="D8" s="6"/>
+      <c r="E8" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G8" s="15"/>
-      <c r="H8" s="12">
+      <c r="G8" s="8"/>
+      <c r="H8" s="5">
         <v>0.75</v>
       </c>
-      <c r="I8" s="13" t="s">
+      <c r="I8" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="J8" s="13" t="s">
+      <c r="J8" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13" t="s">
+      <c r="K8" s="6"/>
+      <c r="L8" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="M8" s="14" t="s">
+      <c r="M8" s="7" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="12">
+      <c r="A9" s="5">
         <v>0.79166666666666696</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13" t="s">
+      <c r="D9" s="6"/>
+      <c r="E9" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="G9" s="15"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="14"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="7"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="30"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="14"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="7"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="7"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="30"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="14"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="9"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="7"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="29"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="34"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="6" t="s">
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="H16" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="34"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="9" t="s">
+      <c r="D17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G17" s="10"/>
-      <c r="H17" s="11" t="s">
+      <c r="G17" s="3"/>
+      <c r="H17" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I17" s="11" t="s">
+      <c r="I17" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="J17" s="11" t="s">
+      <c r="J17" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K17" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="L17" s="11" t="s">
+      <c r="K17" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L17" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="M17" s="9" t="s">
+      <c r="M17" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="12">
+      <c r="A18" s="5">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13" t="s">
+      <c r="D18" s="6"/>
+      <c r="E18" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="F18" s="14" t="s">
+      <c r="F18" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G18" s="15"/>
-      <c r="H18" s="12">
+      <c r="G18" s="8"/>
+      <c r="H18" s="5">
         <v>0.41666666666666702</v>
       </c>
-      <c r="I18" s="13" t="s">
+      <c r="I18" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="J18" s="13" t="s">
+      <c r="J18" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13" t="s">
+      <c r="K18" s="6"/>
+      <c r="L18" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="M18" s="14" t="s">
+      <c r="M18" s="7" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="12">
+      <c r="A19" s="5">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13" t="s">
+      <c r="D19" s="6"/>
+      <c r="E19" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="F19" s="14" t="s">
+      <c r="F19" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G19" s="15"/>
-      <c r="H19" s="12">
+      <c r="G19" s="8"/>
+      <c r="H19" s="5">
         <v>0.45833333333333298</v>
       </c>
-      <c r="I19" s="13" t="s">
+      <c r="I19" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="J19" s="13" t="s">
+      <c r="J19" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13" t="s">
+      <c r="K19" s="6"/>
+      <c r="L19" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="M19" s="14" t="s">
+      <c r="M19" s="7" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="12">
+      <c r="A20" s="5">
         <v>0.5</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13" t="s">
+      <c r="D20" s="6"/>
+      <c r="E20" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="F20" s="14" t="s">
+      <c r="F20" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G20" s="15"/>
-      <c r="H20" s="12">
+      <c r="G20" s="8"/>
+      <c r="H20" s="5">
         <v>0.5</v>
       </c>
-      <c r="I20" s="13" t="s">
+      <c r="I20" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="J20" s="13" t="s">
+      <c r="J20" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13" t="s">
+      <c r="K20" s="6"/>
+      <c r="L20" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="M20" s="14" t="s">
+      <c r="M20" s="7" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="12">
+      <c r="A21" s="5">
         <v>0.54166666666666696</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13" t="s">
+      <c r="D21" s="6"/>
+      <c r="E21" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="F21" s="14" t="s">
+      <c r="F21" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G21" s="15"/>
-      <c r="H21" s="12">
+      <c r="G21" s="8"/>
+      <c r="H21" s="5">
         <v>0.54166666666666696</v>
       </c>
-      <c r="I21" s="13" t="s">
+      <c r="I21" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="J21" s="13" t="s">
+      <c r="J21" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13" t="s">
+      <c r="K21" s="6"/>
+      <c r="L21" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="M21" s="14" t="s">
+      <c r="M21" s="7" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="12">
+      <c r="A22" s="5">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13" t="s">
+      <c r="D22" s="6"/>
+      <c r="E22" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="F22" s="14" t="s">
+      <c r="F22" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G22" s="15"/>
-      <c r="H22" s="12">
+      <c r="G22" s="8"/>
+      <c r="H22" s="5">
         <v>0.58333333333333304</v>
       </c>
-      <c r="I22" s="13" t="s">
+      <c r="I22" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="J22" s="13" t="s">
+      <c r="J22" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13" t="s">
+      <c r="K22" s="6"/>
+      <c r="L22" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="M22" s="14" t="s">
+      <c r="M22" s="7" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="12">
+      <c r="A23" s="5">
         <v>0.625</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13" t="s">
+      <c r="D23" s="6"/>
+      <c r="E23" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="F23" s="14" t="s">
+      <c r="F23" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="G23" s="15"/>
-      <c r="H23" s="12">
+      <c r="G23" s="8"/>
+      <c r="H23" s="5">
         <v>0.625</v>
       </c>
-      <c r="I23" s="13" t="s">
+      <c r="I23" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="J23" s="13" t="s">
+      <c r="J23" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13" t="s">
+      <c r="K23" s="6"/>
+      <c r="L23" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="M23" s="14" t="s">
+      <c r="M23" s="7" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="12">
+      <c r="A24" s="5">
         <v>0.66666666666666696</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13" t="s">
+      <c r="D24" s="6"/>
+      <c r="E24" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="F24" s="14" t="s">
+      <c r="F24" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="G24" s="29"/>
-      <c r="H24" s="12">
+      <c r="H24" s="5">
         <v>0.66666666666666696</v>
       </c>
-      <c r="I24" s="13" t="s">
+      <c r="I24" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="J24" s="13" t="s">
+      <c r="J24" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13" t="s">
+      <c r="K24" s="6"/>
+      <c r="L24" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="M24" s="13" t="s">
+      <c r="M24" s="6" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="30"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="30"/>
-      <c r="M25" s="30"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="9"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="24"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3477,11 +3529,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:T29"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J24" activeCellId="1" sqref="J24"/>
+    <sheetView topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3490,7 +3542,7 @@
     <col min="3" max="3" width="12.5703125" customWidth="1"/>
     <col min="4" max="4" width="3.42578125" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="6.7109375" style="7" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="4.5703125" customWidth="1"/>
     <col min="8" max="8" width="6.5703125" customWidth="1"/>
     <col min="10" max="10" width="13.7109375" customWidth="1"/>
@@ -3505,1242 +3557,1065 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="1" t="s">
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="H2" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="1" t="s">
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="O2" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="39"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="39"/>
+      <c r="T2" s="39"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="9" t="s">
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="29"/>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="L3" s="9" t="s">
+      <c r="K3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="M3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="29"/>
-      <c r="O3" s="9" t="s">
+      <c r="O3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="P3" s="9" t="s">
+      <c r="P3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="Q3" s="9" t="s">
+      <c r="Q3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="R3" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="S3" s="9" t="s">
+      <c r="R3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="S3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="T3" s="9" t="s">
+      <c r="T3" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
+      <c r="A4" s="5">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="13" t="s">
+      <c r="D4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="G4" s="29"/>
-      <c r="H4" s="12">
+      <c r="H4" s="5">
         <v>0.58333333333333304</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="13" t="s">
+      <c r="J4" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="K4" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="L4" s="13" t="s">
+      <c r="K4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L4" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="M4" s="14" t="s">
+      <c r="M4" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="N4" s="29"/>
-      <c r="O4" s="12">
+      <c r="O4" s="5">
         <v>0.58333333333333304</v>
       </c>
-      <c r="P4" s="13" t="s">
+      <c r="P4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="13" t="s">
+      <c r="Q4" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="R4" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="S4" s="13" t="s">
+      <c r="R4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="S4" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="T4" s="14" t="s">
+      <c r="T4" s="7" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
+      <c r="A5" s="5">
         <v>0.625</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="13" t="s">
+      <c r="D5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="G5" s="29"/>
-      <c r="H5" s="12">
+      <c r="H5" s="5">
         <v>0.625</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="I5" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="J5" s="13" t="s">
+      <c r="J5" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="K5" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="L5" s="13" t="s">
+      <c r="K5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L5" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="M5" s="14" t="s">
+      <c r="M5" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="N5" s="29"/>
-      <c r="O5" s="12">
+      <c r="O5" s="5">
         <v>0.625</v>
       </c>
-      <c r="P5" s="13" t="s">
+      <c r="P5" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="Q5" s="13" t="s">
+      <c r="Q5" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="R5" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="S5" s="13" t="s">
+      <c r="R5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="S5" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="T5" s="14" t="s">
+      <c r="T5" s="7" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
+      <c r="A6" s="5">
         <v>0.66666666666666696</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="13" t="s">
+      <c r="D6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="G6" s="29"/>
-      <c r="H6" s="12">
+      <c r="H6" s="5">
         <v>0.66666666666666696</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="I6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="13" t="s">
+      <c r="J6" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="K6" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="L6" s="13" t="s">
+      <c r="K6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="M6" s="14" t="s">
+      <c r="M6" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="N6" s="29"/>
-      <c r="O6" s="12">
+      <c r="O6" s="5">
         <v>0.66666666666666696</v>
       </c>
-      <c r="P6" s="13" t="s">
+      <c r="P6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="Q6" s="13" t="s">
+      <c r="Q6" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="R6" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="S6" s="13" t="s">
+      <c r="R6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="S6" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="T6" s="14" t="s">
+      <c r="T6" s="7" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
+      <c r="A7" s="5">
         <v>0.70833333333333304</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="13" t="s">
+      <c r="D7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="G7" s="29"/>
-      <c r="H7" s="12">
+      <c r="H7" s="5">
         <v>0.70833333333333304</v>
       </c>
-      <c r="I7" s="13" t="s">
+      <c r="I7" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="J7" s="13" t="s">
+      <c r="J7" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="K7" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="L7" s="13" t="s">
+      <c r="K7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L7" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="M7" s="14" t="s">
+      <c r="M7" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="N7" s="29"/>
-      <c r="O7" s="12">
+      <c r="O7" s="5">
         <v>0.70833333333333304</v>
       </c>
-      <c r="P7" s="13" t="s">
+      <c r="P7" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="Q7" s="13" t="s">
+      <c r="Q7" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="R7" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="S7" s="13" t="s">
+      <c r="R7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="S7" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="T7" s="14" t="s">
+      <c r="T7" s="7" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
+      <c r="A8" s="5">
         <v>0.75</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="13" t="s">
+      <c r="D8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="G8" s="29"/>
-      <c r="H8" s="12">
+      <c r="H8" s="5">
         <v>0.75</v>
       </c>
-      <c r="I8" s="13" t="s">
+      <c r="I8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J8" s="13" t="s">
+      <c r="J8" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="K8" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="L8" s="13" t="s">
+      <c r="K8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L8" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="M8" s="14" t="s">
+      <c r="M8" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="N8" s="29"/>
-      <c r="O8" s="12">
+      <c r="O8" s="5">
         <v>0.75</v>
       </c>
-      <c r="P8" s="13" t="s">
+      <c r="P8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="Q8" s="13" t="s">
+      <c r="Q8" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="R8" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="S8" s="13" t="s">
+      <c r="R8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="S8" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="T8" s="14" t="s">
+      <c r="T8" s="7" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="12">
+      <c r="A9" s="5">
         <v>0.79166666666666696</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="13" t="s">
+      <c r="D9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="G9" s="29"/>
-      <c r="H9" s="12">
+      <c r="H9" s="5">
         <v>0.79166666666666696</v>
       </c>
-      <c r="I9" s="13" t="s">
+      <c r="I9" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="J9" s="13" t="s">
+      <c r="J9" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="K9" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="L9" s="13" t="s">
+      <c r="K9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L9" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="M9" s="14" t="s">
+      <c r="M9" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="N9" s="29"/>
-      <c r="O9" s="12">
+      <c r="O9" s="5">
         <v>0.79166666666666696</v>
       </c>
-      <c r="P9" s="13" t="s">
+      <c r="P9" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="Q9" s="13" t="s">
+      <c r="Q9" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="R9" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="S9" s="13" t="s">
+      <c r="R9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="S9" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="T9" s="14" t="s">
+      <c r="T9" s="7" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="12">
+      <c r="A10" s="5">
         <v>0.83333333333333304</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="17" t="s">
+      <c r="D10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="G10" s="29"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="29"/>
-      <c r="O10" s="12">
+      <c r="H10" s="13"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="7"/>
+      <c r="O10" s="5">
         <v>0.83333333333333304</v>
       </c>
-      <c r="P10" s="13" t="s">
+      <c r="P10" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="Q10" s="17" t="s">
+      <c r="Q10" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="R10" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="S10" s="17" t="s">
+      <c r="R10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="S10" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="T10" s="14" t="s">
+      <c r="T10" s="7" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="30"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="13"/>
-      <c r="T11" s="16"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="9"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="9"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="9"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="29"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="13"/>
-      <c r="S12" s="13"/>
-      <c r="T12" s="13"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="13"/>
-      <c r="T13" s="13"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="29"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="29"/>
-      <c r="P14" s="29"/>
-      <c r="Q14" s="29"/>
-      <c r="R14" s="29"/>
-      <c r="S14" s="29"/>
-      <c r="T14" s="29"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
     </row>
     <row r="15" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="35" t="s">
         <v>119</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="35"/>
+      <c r="O15" s="35"/>
+      <c r="P15" s="35"/>
+      <c r="Q15" s="35"/>
+      <c r="R15" s="35"/>
+      <c r="S15" s="35"/>
+      <c r="T15" s="35"/>
     </row>
     <row r="16" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="1" t="s">
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="H16" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="29"/>
-      <c r="O16" s="29"/>
-      <c r="P16" s="29"/>
-      <c r="Q16" s="29"/>
-      <c r="R16" s="29"/>
-      <c r="S16" s="29"/>
-      <c r="T16" s="29"/>
-    </row>
-    <row r="17" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="33" t="s">
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="39"/>
+    </row>
+    <row r="17" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="33" t="s">
+      <c r="C17" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="33" t="s">
+      <c r="D17" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="F17" s="33" t="s">
+      <c r="F17" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="G17" s="34"/>
-      <c r="H17" s="33" t="s">
+      <c r="G17" s="21"/>
+      <c r="H17" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="I17" s="33" t="s">
+      <c r="I17" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="J17" s="33" t="s">
+      <c r="J17" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="K17" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="L17" s="33" t="s">
+      <c r="K17" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="L17" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="M17" s="33" t="s">
+      <c r="M17" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="N17" s="29"/>
-      <c r="O17" s="29"/>
-      <c r="P17" s="29"/>
-      <c r="Q17" s="29"/>
-      <c r="R17" s="29"/>
-      <c r="S17" s="29"/>
-      <c r="T17" s="29"/>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="12">
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="D18" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="13" t="s">
+      <c r="D18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="F18" s="14" t="s">
+      <c r="F18" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="G18" s="29"/>
-      <c r="H18" s="12">
+      <c r="H18" s="5">
         <v>0.41666666666666702</v>
       </c>
-      <c r="I18" s="13" t="s">
+      <c r="I18" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="J18" s="13" t="s">
+      <c r="J18" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="K18" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="L18" s="13" t="s">
+      <c r="K18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L18" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="M18" s="14" t="s">
+      <c r="M18" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="N18" s="29"/>
-      <c r="O18" s="29"/>
-      <c r="P18" s="29"/>
-      <c r="Q18" s="29"/>
-      <c r="R18" s="29"/>
-      <c r="S18" s="29"/>
-      <c r="T18" s="29"/>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="12">
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="D19" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="13" t="s">
+      <c r="D19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="F19" s="14" t="s">
+      <c r="F19" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="G19" s="29"/>
-      <c r="H19" s="12">
+      <c r="H19" s="5">
         <v>0.45833333333333298</v>
       </c>
-      <c r="I19" s="13" t="s">
+      <c r="I19" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="J19" s="13" t="s">
+      <c r="J19" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="K19" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="L19" s="13" t="s">
+      <c r="K19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L19" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="M19" s="14" t="s">
+      <c r="M19" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="N19" s="29"/>
-      <c r="O19" s="29"/>
-      <c r="P19" s="29"/>
-      <c r="Q19" s="29"/>
-      <c r="R19" s="29"/>
-      <c r="S19" s="29"/>
-      <c r="T19" s="29"/>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="12">
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
         <v>0.5</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="D20" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" s="13" t="s">
+      <c r="D20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="F20" s="14" t="s">
+      <c r="F20" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="G20" s="29"/>
-      <c r="H20" s="12">
+      <c r="H20" s="5">
         <v>0.5</v>
       </c>
-      <c r="I20" s="13" t="s">
+      <c r="I20" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="J20" s="13" t="s">
+      <c r="J20" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="K20" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="L20" s="13" t="s">
+      <c r="K20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L20" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="M20" s="14" t="s">
+      <c r="M20" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="N20" s="29"/>
-      <c r="O20" s="29"/>
-      <c r="P20" s="29"/>
-      <c r="Q20" s="29"/>
-      <c r="R20" s="29"/>
-      <c r="S20" s="29"/>
-      <c r="T20" s="29"/>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="12">
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
         <v>0.54166666666666696</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="D21" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" s="13" t="s">
+      <c r="D21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="F21" s="14" t="s">
+      <c r="F21" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="G21" s="29"/>
-      <c r="H21" s="12">
+      <c r="H21" s="5">
         <v>0.54166666666666696</v>
       </c>
-      <c r="I21" s="13" t="s">
+      <c r="I21" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="J21" s="13" t="s">
+      <c r="J21" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="K21" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="L21" s="13" t="s">
+      <c r="K21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L21" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="M21" s="14" t="s">
+      <c r="M21" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="N21" s="29"/>
-      <c r="O21" s="29"/>
-      <c r="P21" s="29"/>
-      <c r="Q21" s="29"/>
-      <c r="R21" s="29"/>
-      <c r="S21" s="29"/>
-      <c r="T21" s="29"/>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="12">
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="D22" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="13" t="s">
+      <c r="D22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="F22" s="14" t="s">
+      <c r="F22" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="G22" s="29"/>
-      <c r="H22" s="12">
+      <c r="H22" s="5">
         <v>0.58333333333333304</v>
       </c>
-      <c r="I22" s="13" t="s">
+      <c r="I22" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="J22" s="13" t="s">
+      <c r="J22" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="K22" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="L22" s="13" t="s">
+      <c r="K22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L22" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="M22" s="14" t="s">
+      <c r="M22" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="N22" s="29"/>
-      <c r="O22" s="29"/>
-      <c r="P22" s="29"/>
-      <c r="Q22" s="29"/>
-      <c r="R22" s="29"/>
-      <c r="S22" s="29"/>
-      <c r="T22" s="29"/>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="12">
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
         <v>0.625</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="D23" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" s="13" t="s">
+      <c r="D23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="F23" s="14" t="s">
+      <c r="F23" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="G23" s="29"/>
-      <c r="H23" s="12">
+      <c r="H23" s="5">
         <v>0.625</v>
       </c>
-      <c r="I23" s="13" t="s">
+      <c r="I23" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="J23" s="13" t="s">
+      <c r="J23" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="K23" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="L23" s="13" t="s">
+      <c r="K23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L23" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="M23" s="14" t="s">
+      <c r="M23" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="N23" s="29"/>
-      <c r="O23" s="29"/>
-      <c r="P23" s="29"/>
-      <c r="Q23" s="29"/>
-      <c r="R23" s="29"/>
-      <c r="S23" s="29"/>
-      <c r="T23" s="29"/>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="12">
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
         <v>0.66666666666666696</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="D24" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E24" s="13" t="s">
+      <c r="D24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="F24" s="14" t="s">
+      <c r="F24" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="G24" s="29"/>
-      <c r="H24" s="12">
+      <c r="H24" s="5">
         <v>0.66666666666666696</v>
       </c>
-      <c r="I24" s="13" t="s">
+      <c r="I24" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="J24" s="13" t="s">
+      <c r="J24" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="K24" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="L24" s="17" t="s">
+      <c r="K24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L24" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="M24" s="14" t="s">
+      <c r="M24" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="N24" s="29"/>
-      <c r="O24" s="29"/>
-      <c r="P24" s="29"/>
-      <c r="Q24" s="29"/>
-      <c r="R24" s="29"/>
-      <c r="S24" s="29"/>
-      <c r="T24" s="29"/>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="12">
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
         <v>0.70833333333333304</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="D25" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25" s="13" t="s">
+      <c r="D25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="F25" s="14" t="s">
+      <c r="F25" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="G25" s="29"/>
-      <c r="H25" s="12">
+      <c r="H25" s="5">
         <v>0.70833333333333304</v>
       </c>
-      <c r="I25" s="13" t="s">
+      <c r="I25" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="J25" s="13" t="s">
+      <c r="J25" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="K25" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="L25" s="13" t="s">
+      <c r="K25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L25" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="M25" s="14" t="s">
+      <c r="M25" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="N25" s="29"/>
-      <c r="O25" s="29"/>
-      <c r="P25" s="29"/>
-      <c r="Q25" s="29"/>
-      <c r="R25" s="29"/>
-      <c r="S25" s="29"/>
-      <c r="T25" s="29"/>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="12">
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
         <v>0.75</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="D26" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E26" s="13" t="s">
+      <c r="D26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="F26" s="14" t="s">
+      <c r="F26" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="G26" s="29"/>
-      <c r="H26" s="12">
+      <c r="H26" s="5">
         <v>0.75</v>
       </c>
-      <c r="I26" s="13" t="s">
+      <c r="I26" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="J26" s="13" t="s">
+      <c r="J26" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="K26" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="L26" s="13" t="s">
+      <c r="K26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L26" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="M26" s="14" t="s">
+      <c r="M26" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="N26" s="29"/>
-      <c r="O26" s="29"/>
-      <c r="P26" s="29"/>
-      <c r="Q26" s="29"/>
-      <c r="R26" s="29"/>
-      <c r="S26" s="29"/>
-      <c r="T26" s="29"/>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" s="12">
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
         <v>0.79166666666666696</v>
       </c>
-      <c r="B27" s="35" t="s">
+      <c r="B27" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="35" t="s">
+      <c r="C27" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="D27" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E27" s="35" t="s">
+      <c r="D27" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="F27" s="36" t="s">
+      <c r="F27" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="G27" s="29"/>
-      <c r="H27" s="12">
+      <c r="H27" s="5">
         <v>0.79166666666666696</v>
       </c>
-      <c r="I27" s="35" t="s">
+      <c r="I27" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="J27" s="13" t="s">
+      <c r="J27" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="K27" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="L27" s="35" t="s">
+      <c r="K27" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L27" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="M27" s="36" t="s">
+      <c r="M27" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="N27" s="29"/>
-      <c r="O27" s="29"/>
-      <c r="P27" s="29"/>
-      <c r="Q27" s="29"/>
-      <c r="R27" s="29"/>
-      <c r="S27" s="29"/>
-      <c r="T27" s="29"/>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="12">
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
         <v>0.83333333333333304</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="C28" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="D28" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="E28" s="16" t="s">
+      <c r="D28" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="F28" s="16" t="s">
+      <c r="F28" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="G28" s="30"/>
-      <c r="H28" s="12">
+      <c r="G28" s="13"/>
+      <c r="H28" s="5">
         <v>0.83333333333333304</v>
       </c>
-      <c r="I28" s="35" t="s">
+      <c r="I28" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="J28" s="13" t="s">
+      <c r="J28" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="K28" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="L28" s="16" t="s">
+      <c r="K28" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L28" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="M28" s="36" t="s">
+      <c r="M28" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="N28" s="29"/>
-      <c r="O28" s="29"/>
-      <c r="P28" s="29"/>
-      <c r="Q28" s="29"/>
-      <c r="R28" s="29"/>
-      <c r="S28" s="29"/>
-      <c r="T28" s="29"/>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="30"/>
-      <c r="B29" s="30"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="30"/>
-      <c r="K29" s="30"/>
-      <c r="L29" s="30"/>
-      <c r="M29" s="30"/>
-      <c r="N29" s="29"/>
-      <c r="O29" s="29"/>
-      <c r="P29" s="29"/>
-      <c r="Q29" s="29"/>
-      <c r="R29" s="29"/>
-      <c r="S29" s="29"/>
-      <c r="T29" s="29"/>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="29"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="29"/>
-      <c r="K30" s="29"/>
-      <c r="L30" s="29"/>
-      <c r="M30" s="29"/>
-      <c r="N30" s="29"/>
-      <c r="O30" s="29"/>
-      <c r="P30" s="29"/>
-      <c r="Q30" s="29"/>
-      <c r="R30" s="29"/>
-      <c r="S30" s="29"/>
-      <c r="T30" s="29"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -4758,11 +4633,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:M13"/>
+    <sheetView topLeftCell="B22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4777,515 +4652,605 @@
     <col min="12" max="12" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
-        <v>173</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-    </row>
-    <row r="2" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="40" t="s">
+        <v>169</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+    </row>
+    <row r="2" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="5" t="s">
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="H2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="9" t="s">
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="24"/>
-      <c r="H3" s="11" t="s">
+      <c r="G3" s="3"/>
+      <c r="H3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="L3" s="11" t="s">
+      <c r="K3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="M3" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
         <v>0.45833333333333331</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="43" t="s">
         <v>124</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="43" t="s">
         <v>132</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13" t="s">
+      <c r="D4" s="43"/>
+      <c r="E4" s="43" t="s">
         <v>131</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="23"/>
-      <c r="H4" s="12">
+      <c r="G4" s="8">
+        <v>32</v>
+      </c>
+      <c r="H4" s="47">
         <v>0.45833333333333331</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="43" t="s">
         <v>125</v>
       </c>
-      <c r="J4" s="13" t="s">
+      <c r="J4" s="43" t="s">
         <v>134</v>
       </c>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13" t="s">
+      <c r="K4" s="43"/>
+      <c r="L4" s="43" t="s">
         <v>130</v>
       </c>
-      <c r="M4" s="14" t="s">
+      <c r="M4" s="44" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
-      <c r="B5" s="13" t="s">
+      <c r="N4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="B5" s="43" t="s">
         <v>151</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="43" t="s">
         <v>126</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13" t="s">
+      <c r="D5" s="43"/>
+      <c r="E5" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="G5" s="23"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="13" t="s">
+      <c r="G5" s="8">
+        <v>102</v>
+      </c>
+      <c r="H5" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="I5" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="J5" s="13" t="s">
+      <c r="J5" s="43" t="s">
         <v>128</v>
       </c>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13" t="s">
+      <c r="K5" s="43"/>
+      <c r="L5" s="43" t="s">
         <v>129</v>
       </c>
-      <c r="M5" s="14" t="s">
+      <c r="M5" s="44" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-      <c r="B6" s="13" t="s">
+      <c r="N5">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="B6" s="43" t="s">
         <v>124</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="43" t="s">
         <v>133</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13" t="s">
+      <c r="D6" s="43"/>
+      <c r="E6" s="43" t="s">
+        <v>216</v>
+      </c>
+      <c r="F6" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="8">
+        <v>33</v>
+      </c>
+      <c r="H6" s="47">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="I6" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="J6" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="K6" s="43"/>
+      <c r="L6" s="43" t="s">
         <v>130</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="M6" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="23"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="13" t="s">
+      <c r="N6">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="B7" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="F7" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="G7" s="8">
+        <v>129</v>
+      </c>
+      <c r="H7" s="47">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="I7" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="J7" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="M7" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="N7">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>0.625</v>
+      </c>
+      <c r="B8" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="C8" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43" t="s">
+        <v>140</v>
+      </c>
+      <c r="F8" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="8">
+        <v>31</v>
+      </c>
+      <c r="H8" s="47">
+        <v>0.625</v>
+      </c>
+      <c r="I8" s="43" t="s">
         <v>125</v>
       </c>
-      <c r="J6" s="13" t="s">
+      <c r="J8" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43" t="s">
         <v>135</v>
       </c>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="M6" s="14" t="s">
+      <c r="M8" s="44" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
-      <c r="B7" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13" t="s">
+      <c r="N8">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="B9" s="45" t="s">
+        <v>141</v>
+      </c>
+      <c r="C9" s="43" t="s">
+        <v>142</v>
+      </c>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43" t="s">
+        <v>143</v>
+      </c>
+      <c r="F9" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="G9" s="8">
         <v>127</v>
       </c>
-      <c r="F7" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="G7" s="23"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="J7" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="M7" s="14" t="s">
+      <c r="H9" s="47">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="I9" s="45" t="s">
+        <v>144</v>
+      </c>
+      <c r="J9" s="43" t="s">
+        <v>145</v>
+      </c>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43" t="s">
+        <v>146</v>
+      </c>
+      <c r="M9" s="44" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
-      <c r="B8" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13" t="s">
+      <c r="N9">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="B10" s="45" t="s">
+        <v>147</v>
+      </c>
+      <c r="C10" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43" t="s">
+        <v>149</v>
+      </c>
+      <c r="F10" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="8">
+        <v>46</v>
+      </c>
+      <c r="H10" s="47">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="I10" s="45" t="s">
+        <v>150</v>
+      </c>
+      <c r="J10" s="43" t="s">
+        <v>153</v>
+      </c>
+      <c r="K10" s="43"/>
+      <c r="L10" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="M10" s="44" t="s">
+        <v>155</v>
+      </c>
+      <c r="N10">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="7"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="7"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+    </row>
+    <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="5:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E17" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+    </row>
+    <row r="18" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E19" s="5">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F19" s="48" t="s">
+        <v>217</v>
+      </c>
+      <c r="G19" s="43" t="s">
+        <v>156</v>
+      </c>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43" t="s">
+        <v>157</v>
+      </c>
+      <c r="J19" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="K19">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="20" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E20" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F20" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="G20" s="43" t="s">
+        <v>218</v>
+      </c>
+      <c r="H20" s="48"/>
+      <c r="I20" s="43" t="s">
+        <v>219</v>
+      </c>
+      <c r="J20" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="K20">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="21" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E21" s="5">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="F21" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="G21" s="43" t="s">
+        <v>220</v>
+      </c>
+      <c r="H21" s="43"/>
+      <c r="I21" s="43" t="s">
+        <v>221</v>
+      </c>
+      <c r="J21" s="44" t="s">
+        <v>159</v>
+      </c>
+      <c r="K21">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="22" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E22" s="5">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="F22" s="43" t="s">
+        <v>163</v>
+      </c>
+      <c r="G22" s="43" t="s">
+        <v>160</v>
+      </c>
+      <c r="H22" s="43"/>
+      <c r="I22" s="43" t="s">
+        <v>161</v>
+      </c>
+      <c r="J22" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="K22">
         <v>140</v>
       </c>
-      <c r="F8" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="23"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="J8" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="M8" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
-      <c r="B9" s="38" t="s">
+    </row>
+    <row r="23" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E23" s="5">
+        <v>0.625</v>
+      </c>
+      <c r="F23" s="43" t="s">
+        <v>162</v>
+      </c>
+      <c r="G23" s="43" t="s">
+        <v>164</v>
+      </c>
+      <c r="H23" s="43"/>
+      <c r="I23" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="J23" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="K23">
         <v>141</v>
       </c>
-      <c r="C9" s="13" t="s">
+    </row>
+    <row r="24" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E24" s="5">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="F24" s="48" t="s">
+        <v>165</v>
+      </c>
+      <c r="G24" s="43" t="s">
+        <v>166</v>
+      </c>
+      <c r="H24" s="43"/>
+      <c r="I24" s="43" t="s">
+        <v>167</v>
+      </c>
+      <c r="J24" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="K24">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="25" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E25" s="5">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="F25" s="48" t="s">
+        <v>168</v>
+      </c>
+      <c r="G25" s="43" t="s">
+        <v>153</v>
+      </c>
+      <c r="H25" s="43"/>
+      <c r="I25" s="43" t="s">
+        <v>167</v>
+      </c>
+      <c r="J25" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="K25">
         <v>142</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="G9" s="23"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="38" t="s">
-        <v>144</v>
-      </c>
-      <c r="J9" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="M9" s="14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="40" t="s">
-        <v>147</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="38" t="s">
-        <v>150</v>
-      </c>
-      <c r="J10" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="M10" s="14" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="14"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-    </row>
-    <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="5:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E17" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-    </row>
-    <row r="18" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E18" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="I18" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J18" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E19" s="12">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="J19" s="14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E20" s="12"/>
-      <c r="F20" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="J20" s="14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E21" s="12"/>
-      <c r="F21" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="G21" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="J21" s="14" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="22" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E22" s="12"/>
-      <c r="F22" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="G22" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="J22" s="14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="23" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E23" s="12"/>
-      <c r="F23" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="G23" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="J23" s="14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E24" s="12"/>
-      <c r="F24" s="37" t="s">
-        <v>169</v>
-      </c>
-      <c r="G24" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="J24" s="39" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E25" s="12"/>
-      <c r="F25" s="37" t="s">
-        <v>172</v>
-      </c>
-      <c r="G25" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="J25" s="14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="26" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E26" s="12"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="14"/>
-    </row>
-    <row r="27" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E27" s="12"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-    </row>
-    <row r="28" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E28" s="12"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
+    </row>
+    <row r="26" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E26" s="5"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="7"/>
+    </row>
+    <row r="27" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E27" s="5"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+    </row>
+    <row r="28" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E28" s="5"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5300,11 +5265,465 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:M22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>172</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>173</v>
+      </c>
+      <c r="D3" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="43" t="s">
+        <v>174</v>
+      </c>
+      <c r="F3" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="3">
+        <v>38</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="I3" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="B4" s="43" t="s">
+        <v>194</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>185</v>
+      </c>
+      <c r="D4" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="43" t="s">
+        <v>171</v>
+      </c>
+      <c r="F4" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="3">
+        <v>44</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="I4" s="25" t="s">
+        <v>198</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="B5" s="43" t="s">
+        <v>183</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>184</v>
+      </c>
+      <c r="D5" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="43" t="s">
+        <v>174</v>
+      </c>
+      <c r="F5" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="3">
+        <v>39</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="I5" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="K5" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="B6" s="48" t="s">
+        <v>188</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>189</v>
+      </c>
+      <c r="D6" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="43" t="s">
+        <v>190</v>
+      </c>
+      <c r="F6" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="5">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="I6" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>0.625</v>
+      </c>
+      <c r="B7" s="43" t="s">
+        <v>195</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>173</v>
+      </c>
+      <c r="D7" s="51" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="43" t="s">
+        <v>184</v>
+      </c>
+      <c r="F7" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="5">
+        <v>0.625</v>
+      </c>
+      <c r="I7" s="32" t="s">
+        <v>186</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="B8" s="48" t="s">
+        <v>199</v>
+      </c>
+      <c r="C8" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="D8" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="43" t="s">
+        <v>197</v>
+      </c>
+      <c r="F8" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="5">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="I8" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" t="s">
+        <v>222</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="1"/>
+      <c r="I9" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="5">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="I10" s="25" t="s">
+        <v>193</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="12"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="J11" s="6"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="12"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G14" s="3"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="16"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G15" s="3"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="16"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G16" s="3"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="16"/>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="G17" s="3"/>
+      <c r="H17" s="30"/>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="G18" s="3"/>
+      <c r="H18" s="30"/>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="G19" s="3"/>
+      <c r="H19" s="30"/>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="G21" s="1"/>
+      <c r="H21" s="30"/>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="H1:M1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5318,367 +5737,367 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="40" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+    </row>
+    <row r="2" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="L4" s="27"/>
+      <c r="M4" s="28"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-    </row>
-    <row r="2" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="24"/>
-      <c r="H3" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="K3" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="L3" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="B4" s="13" t="s">
+      <c r="F5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="L5" s="27"/>
+      <c r="M5" s="28"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6" s="27"/>
+      <c r="M6" s="28"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="24" t="s">
         <v>198</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="J8" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="J9" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="F4" s="14" t="s">
+      <c r="K9" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="24"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="L4" s="47"/>
-      <c r="M4" s="48"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
-      <c r="B5" s="13" t="s">
+      <c r="G10" s="1"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="J10" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="F5" s="14" t="s">
+      <c r="K10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="K11" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="M11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="24"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="L5" s="47"/>
-      <c r="M5" s="48"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-      <c r="B6" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="24"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="L6" s="47"/>
-      <c r="M6" s="48"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
-      <c r="B7" s="13" t="s">
-        <v>198</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="24"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="J7" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="K7" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="L7" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="M7" s="14" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
-      <c r="B8" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="24"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="37" t="s">
-        <v>202</v>
-      </c>
-      <c r="J8" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="M8" s="14" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
-      <c r="B9" s="13" t="s">
-        <v>198</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="52"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="37" t="s">
-        <v>192</v>
-      </c>
-      <c r="J9" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="K9" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="L9" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="M9" s="14" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="D10" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="53"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="50" t="s">
-        <v>190</v>
-      </c>
-      <c r="J10" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="L10" s="42" t="s">
-        <v>191</v>
-      </c>
-      <c r="M10" s="43" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
-      <c r="B11" s="37" t="s">
-        <v>203</v>
-      </c>
-      <c r="C11" s="42" t="s">
-        <v>200</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="42" t="s">
-        <v>201</v>
-      </c>
-      <c r="F11" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" s="18"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="37" t="s">
-        <v>197</v>
-      </c>
-      <c r="J11" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="K11" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="L11" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="M11" s="14" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="20"/>
-      <c r="B12" s="54"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="54"/>
-      <c r="K13" s="54"/>
-      <c r="L13" s="54"/>
-      <c r="M13" s="54"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5688,4 +6107,235 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:I14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="1"/>
+    <col min="9" max="9" width="17.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="40" t="s">
+        <v>204</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B2" s="40" t="s">
+        <v>201</v>
+      </c>
+      <c r="C2" s="40"/>
+      <c r="E2" s="40" t="s">
+        <v>202</v>
+      </c>
+      <c r="F2" s="40"/>
+      <c r="H2" s="40" t="s">
+        <v>203</v>
+      </c>
+      <c r="I2" s="40"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="42" t="s">
+        <v>212</v>
+      </c>
+      <c r="C3" s="42"/>
+      <c r="E3" s="42" t="s">
+        <v>213</v>
+      </c>
+      <c r="F3" s="42"/>
+      <c r="H3" s="42" t="s">
+        <v>214</v>
+      </c>
+      <c r="I3" s="42"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="40" t="s">
+        <v>206</v>
+      </c>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B7" s="40" t="s">
+        <v>201</v>
+      </c>
+      <c r="C7" s="40"/>
+      <c r="E7" s="40" t="s">
+        <v>202</v>
+      </c>
+      <c r="F7" s="40"/>
+      <c r="H7" s="40" t="s">
+        <v>203</v>
+      </c>
+      <c r="I7" s="40"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>10</v>
+      </c>
+      <c r="B8" s="42" t="s">
+        <v>211</v>
+      </c>
+      <c r="C8" s="42"/>
+      <c r="E8" s="40" t="s">
+        <v>209</v>
+      </c>
+      <c r="F8" s="40"/>
+      <c r="H8" s="42" t="s">
+        <v>210</v>
+      </c>
+      <c r="I8" s="42"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="40" t="s">
+        <v>207</v>
+      </c>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B12" s="40" t="s">
+        <v>201</v>
+      </c>
+      <c r="C12" s="40"/>
+      <c r="E12" s="40" t="s">
+        <v>202</v>
+      </c>
+      <c r="F12" s="40"/>
+      <c r="H12" s="40" t="s">
+        <v>203</v>
+      </c>
+      <c r="I12" s="40"/>
+    </row>
+    <row r="13" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="E13" s="40" t="s">
+        <v>208</v>
+      </c>
+      <c r="F13" s="40"/>
+      <c r="H13" s="40" t="s">
+        <v>215</v>
+      </c>
+      <c r="I13" s="40"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+    </row>
+  </sheetData>
+  <mergeCells count="36">
+    <mergeCell ref="A11:I11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>